--- a/mcmaster_excel/Metric_High-Strength_High-Temperature_PEEK_Pan_Head_Phillips_Screws.xlsx
+++ b/mcmaster_excel/Metric_High-Strength_High-Temperature_PEEK_Pan_Head_Phillips_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,110 +434,172 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg., mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TemperatureRange, °F</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr"/>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PEEK Plastic</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>Lg., mm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia., mm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadHt., mm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DriveSize</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TemperatureRange, °F</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Specifications Met</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>No. 0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-50° to 500°</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Beige</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>ASME B18.6.7M</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>96367A110</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>$12.54</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>M2 × 0.4 mm</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -582,21 +644,29 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>96367A110</t>
+          <t>96367A120</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>$12.54</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -641,21 +711,29 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>96367A120</t>
+          <t>96367A130</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>12.58</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -700,21 +778,29 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>96367A130</t>
+          <t>96367A140</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>12.33</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+          <t>12.36</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -759,99 +845,163 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>96367A140</t>
+          <t>96367A150</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>12.36</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>No. 0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-50° to 500°</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Beige</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>ASME B18.6.7M</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>No. 0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-50° to 500°</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Beige</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ASME B18.6.7M</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>96367A150</t>
+          <t>96367A160</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>13.14</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>No. 0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-50° to 500°</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Beige</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>ASME B18.6.7M</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>96367A170</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>12.67</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>M2.5 × 0.45 mm</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -896,21 +1046,29 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>96367A160</t>
+          <t>96367A180</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>12.60</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -955,21 +1113,29 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>96367A170</t>
+          <t>96367A190</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>12.67</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1014,21 +1180,29 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>96367A180</t>
+          <t>96367A101</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>12.40</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+          <t>13.24</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1038,17 +1212,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>No. 0</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1063,7 +1237,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>ASME B18.6.7M</t>
+          <t>__</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1073,158 +1247,230 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>96367A190</t>
+          <t>96367A921</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>12.43</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>No. 1</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-50° to 500°</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Beige</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>No. 0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-50° to 500°</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Beige</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ASME B18.6.7M</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>96367A101</t>
+          <t>96367A922</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>13.24</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>No. 1</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-50° to 500°</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Beige</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>96367A923</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
           <t>M3 × 0.5 mm</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>No. 1</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-50° to 500°</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Beige</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>No. 1</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>-50° to 500°</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Beige</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>96367A921</t>
+          <t>96367A924</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>12.79</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1264,26 +1510,34 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>96367A922</t>
+          <t>96367A925</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>12.83</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1303,7 +1557,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 0</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1323,26 +1577,34 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>96367A923</t>
+          <t>96367A102</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>13.03</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1362,7 +1624,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 0</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1387,21 +1649,29 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>96367A924</t>
+          <t>96367A103</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1411,17 +1681,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1436,7 +1706,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.6.7M</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1446,21 +1716,29 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>96367A925</t>
+          <t>96367A935</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>6.93</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1470,17 +1748,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>No. 0</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1495,7 +1773,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.6.7M</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1505,21 +1783,29 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>96367A102</t>
+          <t>96367A936</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>7.35</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1529,17 +1815,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>No. 0</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1554,7 +1840,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.6.7M</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1564,40 +1850,96 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>96367A103</t>
+          <t>96367A937</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>8.04</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-50° to 500°</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Beige</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>ASME B18.6.7M</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>96367A938</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
           <t>M4 × 0.7 mm</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1642,21 +1984,29 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>96367A935</t>
+          <t>96367A939</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>8.25</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1676,7 +2026,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1701,21 +2051,29 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>96367A936</t>
+          <t>96367A105</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>8.44</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1735,7 +2093,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1760,21 +2118,29 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>96367A937</t>
+          <t>96367A106</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>8.57</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1784,12 +2150,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1814,26 +2180,34 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>96367A938</t>
+          <t>96367A949</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>10.26</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1843,12 +2217,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1873,26 +2247,34 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>96367A939</t>
+          <t>96367A950</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>11.21</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1902,17 +2284,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1932,26 +2314,34 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>96367A105</t>
+          <t>96367A951</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>11.33</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1961,17 +2351,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1991,45 +2381,101 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>96367A106</t>
+          <t>96367A952</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>11.84</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-50° to 500°</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Beige</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>ASME B18.6.7M</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>96367A953</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
           <t>M5 × 0.8 mm</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2039,17 +2485,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2074,21 +2520,29 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>96367A949</t>
+          <t>96367A963</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2098,17 +2552,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2133,21 +2587,29 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>96367A950</t>
+          <t>96367A964</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2157,17 +2619,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2192,21 +2654,29 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>96367A951</t>
+          <t>96367A965</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2216,17 +2686,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2251,21 +2721,29 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>96367A952</t>
+          <t>96367A966</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2275,17 +2753,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2310,330 +2788,24 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>96367A953</t>
+          <t>96367A967</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
         <is>
           <t>M6 × 1 mm</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>No. 3</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>-50° to 500°</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Beige</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ASME B18.6.7M</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>96367A963</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>No. 3</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>-50° to 500°</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Beige</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ASME B18.6.7M</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>96367A964</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>No. 3</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>-50° to 500°</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Beige</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ASME B18.6.7M</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>96367A965</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>No. 3</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>-50° to 500°</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Beige</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ASME B18.6.7M</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>96367A966</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>6.53</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>No. 3</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>-50° to 500°</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Beige</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ASME B18.6.7M</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>96367A967</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>6.75</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>PEEK Plastic</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
